--- a/Uploads/excel/2017-05-01.xlsx
+++ b/Uploads/excel/2017-05-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>liebert</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,18 @@
   </si>
   <si>
     <t>李康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07-31</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,24 +470,39 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="17.25" customWidth="1"/>
+    <col min="9" max="9" width="18.375" customWidth="1"/>
+    <col min="10" max="10" width="18.875" customWidth="1"/>
+    <col min="11" max="11" width="22.75" customWidth="1"/>
+    <col min="12" max="12" width="17.25" customWidth="1"/>
+    <col min="13" max="13" width="21" customWidth="1"/>
+    <col min="14" max="14" width="18.875" customWidth="1"/>
+    <col min="15" max="15" width="17.625" customWidth="1"/>
+    <col min="17" max="17" width="21.125" customWidth="1"/>
+    <col min="18" max="18" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
+      <c r="A1" t="s">
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
@@ -524,20 +551,20 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2">
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>3</v>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -577,14 +604,14 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
+      <c r="A3">
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C3">
-        <v>3</v>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>1</v>
@@ -630,14 +657,14 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="C4">
-        <v>3</v>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>1</v>
@@ -683,14 +710,14 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
+      <c r="A5">
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="C5">
-        <v>3</v>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>1</v>

--- a/Uploads/excel/2017-05-01.xlsx
+++ b/Uploads/excel/2017-05-01.xlsx
@@ -14,24 +14,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>liebert</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2017-03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,10 +93,6 @@
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李康</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -467,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -496,58 +484,58 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>19</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
@@ -558,16 +546,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -600,165 +588,6 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>3</v>
-      </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
-      <c r="O3">
-        <v>2</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>3</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4">
-        <v>2</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>4</v>
-      </c>
-      <c r="M5">
-        <v>5</v>
-      </c>
-      <c r="N5">
-        <v>3</v>
-      </c>
-      <c r="O5">
-        <v>2</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
         <v>2</v>
       </c>
     </row>
